--- a/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ETUDIANTS-SIO25\Ressources\2A\SLAM\E4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\1A\modules cetif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="495" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -88,9 +88,6 @@
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -103,9 +100,6 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -119,6 +113,51 @@
   </si>
   <si>
     <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom : Perrin Theotime</t>
+  </si>
+  <si>
+    <t>x SLAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet Netflix : </t>
+  </si>
+  <si>
+    <t>repation du travail (canban)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Projet Netflix en php gestion des donnés</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mise en place de google alerte , suivre une formation sur l'ia</t>
+  </si>
+  <si>
+    <t>Enregistrement de log in en php et ajout de donnés dans la bdd</t>
+  </si>
+  <si>
+    <t>Tester la securité de notre site comme verifier si l'utilisateur est admin</t>
+  </si>
+  <si>
+    <t>Projet "Vidage NIR BDO"</t>
+  </si>
+  <si>
+    <t>Suivre un cahier des charges</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Realisation d'un canban pour les projets</t>
+  </si>
+  <si>
+    <t>Mise a jour LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -128,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -186,7 +225,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -464,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,12 +532,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,30 +559,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -552,36 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -907,72 +961,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>16</v>
+      <c r="H4" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>18</v>
+      <c r="A5" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -994,24 +1048,24 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="39"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="I6"/>
@@ -1052,7 +1106,7 @@
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1098,14 +1152,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1143,14 +1199,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1188,14 +1248,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1233,14 +1297,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1278,14 +1346,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1323,14 +1395,18 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="28"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1368,14 +1444,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1413,14 +1489,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1458,14 +1534,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1503,14 +1579,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1549,7 +1625,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1595,14 +1671,20 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="26"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1640,14 +1722,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1685,14 +1771,16 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1730,14 +1818,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="A22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1775,14 +1867,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1820,14 +1916,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1865,14 +1961,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -1910,14 +2006,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -1956,7 +2052,7 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2002,14 +2098,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2047,14 +2143,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2092,14 +2188,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2137,14 +2233,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2182,14 +2278,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2227,14 +2323,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2272,14 +2368,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2317,14 +2413,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2454,17 +2550,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
